--- a/team_specific_matrix/Western Mich._B.xlsx
+++ b/team_specific_matrix/Western Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1952380952380952</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C2">
-        <v>0.5476190476190477</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009523809523809525</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1523809523809524</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09523809523809523</v>
+        <v>0.09689922480620156</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01626016260162602</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C3">
-        <v>0.04878048780487805</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02439024390243903</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7073170731707317</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2032520325203252</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1891891891891892</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7567567567567568</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.05405405405405406</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01764705882352941</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07647058823529412</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2411764705882353</v>
+        <v>0.2536585365853659</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02352941176470588</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1705882352941177</v>
+        <v>0.1560975609756098</v>
       </c>
       <c r="R6">
-        <v>0.1117647058823529</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="S6">
-        <v>0.3</v>
+        <v>0.3073170731707317</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0546875</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0546875</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03125</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2265625</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0234375</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.109375</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="R7">
-        <v>0.0390625</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="S7">
-        <v>0.4609375</v>
+        <v>0.4635761589403973</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09907120743034056</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01857585139318885</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05263157894736842</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1176470588235294</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01547987616099071</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1888544891640867</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R8">
-        <v>0.1145510835913313</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="S8">
-        <v>0.3931888544891641</v>
+        <v>0.3756613756613756</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1197183098591549</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02112676056338028</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02816901408450704</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1056338028169014</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01408450704225352</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1971830985915493</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="R9">
-        <v>0.1056338028169014</v>
+        <v>0.111731843575419</v>
       </c>
       <c r="S9">
-        <v>0.4084507042253521</v>
+        <v>0.4022346368715084</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1054808686659773</v>
+        <v>0.1113013698630137</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01964839710444674</v>
+        <v>0.02140410958904109</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0827300930713547</v>
+        <v>0.0761986301369863</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1344364012409514</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02275077559462254</v>
+        <v>0.02311643835616438</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.21923474663909</v>
+        <v>0.2080479452054795</v>
       </c>
       <c r="R10">
-        <v>0.08066184074457083</v>
+        <v>0.07448630136986302</v>
       </c>
       <c r="S10">
-        <v>0.3350568769389866</v>
+        <v>0.348458904109589</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1866666666666667</v>
+        <v>0.1760299625468165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1288888888888889</v>
+        <v>0.1273408239700375</v>
       </c>
       <c r="K11">
-        <v>0.2488888888888889</v>
+        <v>0.2397003745318352</v>
       </c>
       <c r="L11">
-        <v>0.4133333333333333</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02222222222222222</v>
+        <v>0.0299625468164794</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6632653061224489</v>
+        <v>0.6611570247933884</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2142857142857143</v>
+        <v>0.231404958677686</v>
       </c>
       <c r="K12">
-        <v>0.03061224489795918</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="L12">
-        <v>0.04081632653061224</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05102040816326531</v>
+        <v>0.04958677685950413</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6097560975609756</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3414634146341464</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0223463687150838</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1396648044692737</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="I15">
-        <v>0.03910614525139665</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="J15">
-        <v>0.3240223463687151</v>
+        <v>0.3192488262910798</v>
       </c>
       <c r="K15">
-        <v>0.08379888268156424</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0111731843575419</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.106145251396648</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2737430167597765</v>
+        <v>0.2910798122065728</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006993006993006993</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1258741258741259</v>
+        <v>0.1286549707602339</v>
       </c>
       <c r="I16">
-        <v>0.0979020979020979</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="J16">
-        <v>0.4405594405594406</v>
+        <v>0.4502923976608187</v>
       </c>
       <c r="K16">
-        <v>0.1398601398601399</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006993006993006993</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07692307692307693</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1048951048951049</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02034883720930233</v>
+        <v>0.02267002518891688</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.188953488372093</v>
+        <v>0.1838790931989925</v>
       </c>
       <c r="I17">
-        <v>0.06976744186046512</v>
+        <v>0.07304785894206549</v>
       </c>
       <c r="J17">
-        <v>0.4040697674418605</v>
+        <v>0.4005037783375315</v>
       </c>
       <c r="K17">
-        <v>0.07267441860465117</v>
+        <v>0.07808564231738035</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02325581395348837</v>
+        <v>0.02267002518891688</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002518891687657431</v>
       </c>
       <c r="O17">
-        <v>0.07267441860465117</v>
+        <v>0.06801007556675064</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1482558139534884</v>
+        <v>0.1486146095717884</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02631578947368421</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1973684210526316</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="I18">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J18">
-        <v>0.4210526315789473</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="K18">
-        <v>0.05921052631578947</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03947368421052631</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03289473684210526</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09868421052631579</v>
+        <v>0.1055555555555556</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01637554585152838</v>
+        <v>0.01774622892635315</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1965065502183406</v>
+        <v>0.188997338065661</v>
       </c>
       <c r="I19">
-        <v>0.08624454148471616</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="J19">
-        <v>0.37117903930131</v>
+        <v>0.3717834960070985</v>
       </c>
       <c r="K19">
-        <v>0.1026200873362445</v>
+        <v>0.1029281277728483</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0240174672489083</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N19">
-        <v>0.002183406113537118</v>
+        <v>0.001774622892635315</v>
       </c>
       <c r="O19">
-        <v>0.06986899563318777</v>
+        <v>0.06921029281277728</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1310043668122271</v>
+        <v>0.1339840283939663</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Western Mich._B.xlsx
+++ b/team_specific_matrix/Western Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1821705426356589</v>
+        <v>0.1883561643835616</v>
       </c>
       <c r="C2">
-        <v>0.5658914728682171</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02325581395348837</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1317829457364341</v>
+        <v>0.1335616438356164</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09689922480620156</v>
+        <v>0.08904109589041095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0130718954248366</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="C3">
-        <v>0.0392156862745098</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0261437908496732</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7058823529411765</v>
+        <v>0.7283236994219653</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2156862745098039</v>
+        <v>0.2023121387283237</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1739130434782609</v>
+        <v>0.16</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7391304347826086</v>
+        <v>0.76</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.08695652173913043</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06829268292682927</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01463414634146342</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06829268292682927</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2536585365853659</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02926829268292683</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1560975609756098</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="R6">
-        <v>0.1024390243902439</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="S6">
-        <v>0.3073170731707317</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05298013245033113</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05298013245033113</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03973509933774835</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2052980132450331</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01986754966887417</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1125827814569536</v>
+        <v>0.1</v>
       </c>
       <c r="R7">
-        <v>0.05298013245033113</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="S7">
-        <v>0.4635761589403973</v>
+        <v>0.488235294117647</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1031746031746032</v>
+        <v>0.1053864168618267</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02116402116402116</v>
+        <v>0.01873536299765808</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0582010582010582</v>
+        <v>0.06088992974238876</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1164021164021164</v>
+        <v>0.1100702576112412</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01851851851851852</v>
+        <v>0.02107728337236534</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1851851851851852</v>
+        <v>0.1850117096018735</v>
       </c>
       <c r="R8">
-        <v>0.1216931216931217</v>
+        <v>0.1124121779859485</v>
       </c>
       <c r="S8">
-        <v>0.3756613756613756</v>
+        <v>0.3864168618266979</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.106145251396648</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0223463687150838</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0446927374301676</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.106145251396648</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0223463687150838</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1843575418994413</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R9">
-        <v>0.111731843575419</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S9">
-        <v>0.4022346368715084</v>
+        <v>0.4019138755980861</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1113013698630137</v>
+        <v>0.1098310291858679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02140410958904109</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0761986301369863</v>
+        <v>0.07450076804915515</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.136986301369863</v>
+        <v>0.1359447004608295</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02311643835616438</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2080479452054795</v>
+        <v>0.2073732718894009</v>
       </c>
       <c r="R10">
-        <v>0.07448630136986302</v>
+        <v>0.07910906298003072</v>
       </c>
       <c r="S10">
-        <v>0.348458904109589</v>
+        <v>0.347926267281106</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1760299625468165</v>
+        <v>0.1699346405228758</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1273408239700375</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="K11">
-        <v>0.2397003745318352</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="L11">
-        <v>0.4269662921348314</v>
+        <v>0.4248366013071895</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0299625468164794</v>
+        <v>0.03594771241830065</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6611570247933884</v>
+        <v>0.6788321167883211</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.231404958677686</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="K12">
-        <v>0.02479338842975207</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="L12">
-        <v>0.03305785123966942</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04958677685950413</v>
+        <v>0.05109489051094891</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6136363636363636</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3409090909090909</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0187793427230047</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1408450704225352</v>
+        <v>0.1464435146443515</v>
       </c>
       <c r="I15">
-        <v>0.05164319248826291</v>
+        <v>0.05857740585774059</v>
       </c>
       <c r="J15">
-        <v>0.3192488262910798</v>
+        <v>0.301255230125523</v>
       </c>
       <c r="K15">
-        <v>0.07511737089201878</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009389671361502348</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09389671361502347</v>
+        <v>0.08786610878661087</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2910798122065728</v>
+        <v>0.3096234309623431</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005847953216374269</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1286549707602339</v>
+        <v>0.1319796954314721</v>
       </c>
       <c r="I16">
-        <v>0.0935672514619883</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="J16">
-        <v>0.4502923976608187</v>
+        <v>0.4517766497461929</v>
       </c>
       <c r="K16">
-        <v>0.1228070175438596</v>
+        <v>0.1269035532994924</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005847953216374269</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08187134502923976</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1111111111111111</v>
+        <v>0.1116751269035533</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02267002518891688</v>
+        <v>0.02477477477477477</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1838790931989925</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="I17">
-        <v>0.07304785894206549</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J17">
-        <v>0.4005037783375315</v>
+        <v>0.3896396396396397</v>
       </c>
       <c r="K17">
-        <v>0.07808564231738035</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02267002518891688</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="N17">
-        <v>0.002518891687657431</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="O17">
-        <v>0.06801007556675064</v>
+        <v>0.06981981981981981</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1486146095717884</v>
+        <v>0.1509009009009009</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02777777777777778</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1944444444444444</v>
+        <v>0.1822660098522167</v>
       </c>
       <c r="I18">
-        <v>0.1111111111111111</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="J18">
-        <v>0.4111111111111111</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K18">
-        <v>0.07222222222222222</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03888888888888889</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03888888888888889</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1055555555555556</v>
+        <v>0.09852216748768473</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01774622892635315</v>
+        <v>0.01717408274785324</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.188997338065661</v>
+        <v>0.1912568306010929</v>
       </c>
       <c r="I19">
-        <v>0.09316770186335403</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="J19">
-        <v>0.3717834960070985</v>
+        <v>0.3692427790788447</v>
       </c>
       <c r="K19">
-        <v>0.1029281277728483</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02040816326530612</v>
+        <v>0.02029664324746292</v>
       </c>
       <c r="N19">
-        <v>0.001774622892635315</v>
+        <v>0.00156128024980484</v>
       </c>
       <c r="O19">
-        <v>0.06921029281277728</v>
+        <v>0.06713505074160812</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1339840283939663</v>
+        <v>0.1366120218579235</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Western Mich._B.xlsx
+++ b/team_specific_matrix/Western Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1883561643835616</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C2">
-        <v>0.5684931506849316</v>
+        <v>0.5650793650793651</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02054794520547945</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1335616438356164</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08904109589041095</v>
+        <v>0.09206349206349207</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0115606936416185</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C3">
-        <v>0.03468208092485549</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02312138728323699</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7283236994219653</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2023121387283237</v>
+        <v>0.2096774193548387</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.16</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.76</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.08</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06896551724137931</v>
+        <v>0.06274509803921569</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01293103448275862</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08189655172413793</v>
+        <v>0.07450980392156863</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2392156862745098</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02586206896551724</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1551724137931035</v>
+        <v>0.1607843137254902</v>
       </c>
       <c r="R6">
-        <v>0.09482758620689655</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="S6">
-        <v>0.3103448275862069</v>
+        <v>0.3254901960784314</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05294117647058823</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04705882352941176</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03529411764705882</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2058823529411765</v>
+        <v>0.2180851063829787</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01764705882352941</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="R7">
-        <v>0.05294117647058823</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="S7">
-        <v>0.488235294117647</v>
+        <v>0.4521276595744681</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1053864168618267</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01873536299765808</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06088992974238876</v>
+        <v>0.06004140786749482</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1100702576112412</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02107728337236534</v>
+        <v>0.02070393374741201</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1850117096018735</v>
+        <v>0.1842650103519669</v>
       </c>
       <c r="R8">
-        <v>0.1124121779859485</v>
+        <v>0.1076604554865424</v>
       </c>
       <c r="S8">
-        <v>0.3864168618266979</v>
+        <v>0.3954451345755693</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1100478468899522</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02392344497607655</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03827751196172249</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1148325358851675</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02392344497607655</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.1052631578947368</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="S9">
-        <v>0.4019138755980861</v>
+        <v>0.3822222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1098310291858679</v>
+        <v>0.1081646894626657</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02150537634408602</v>
+        <v>0.0209351011863224</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07450076804915515</v>
+        <v>0.07676203768318214</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1359447004608295</v>
+        <v>0.1311933007676204</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02380952380952381</v>
+        <v>0.02372644801116539</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2073732718894009</v>
+        <v>0.2107466852756455</v>
       </c>
       <c r="R10">
-        <v>0.07910906298003072</v>
+        <v>0.08094905792044661</v>
       </c>
       <c r="S10">
-        <v>0.347926267281106</v>
+        <v>0.3475226796929519</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1699346405228758</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1241830065359477</v>
+        <v>0.1282798833819242</v>
       </c>
       <c r="K11">
-        <v>0.2450980392156863</v>
+        <v>0.2419825072886297</v>
       </c>
       <c r="L11">
-        <v>0.4248366013071895</v>
+        <v>0.434402332361516</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03594771241830065</v>
+        <v>0.03206997084548105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6788321167883211</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.218978102189781</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="K12">
-        <v>0.0218978102189781</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="L12">
-        <v>0.0291970802919708</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05109489051094891</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6041666666666666</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.06122448979591837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01673640167364017</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1464435146443515</v>
+        <v>0.155893536121673</v>
       </c>
       <c r="I15">
-        <v>0.05857740585774059</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="J15">
-        <v>0.301255230125523</v>
+        <v>0.2927756653992395</v>
       </c>
       <c r="K15">
-        <v>0.07112970711297072</v>
+        <v>0.07604562737642585</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008368200836820083</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08786610878661087</v>
+        <v>0.08365019011406843</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3096234309623431</v>
+        <v>0.311787072243346</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005076142131979695</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1319796954314721</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="I16">
-        <v>0.08629441624365482</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="J16">
-        <v>0.4517766497461929</v>
+        <v>0.4549763033175355</v>
       </c>
       <c r="K16">
-        <v>0.1269035532994924</v>
+        <v>0.1184834123222749</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005076142131979695</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08121827411167512</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1116751269035533</v>
+        <v>0.1184834123222749</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02477477477477477</v>
+        <v>0.02191235059760956</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1756756756756757</v>
+        <v>0.1772908366533865</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.08167330677290836</v>
       </c>
       <c r="J17">
-        <v>0.3896396396396397</v>
+        <v>0.3864541832669323</v>
       </c>
       <c r="K17">
-        <v>0.08108108108108109</v>
+        <v>0.08764940239043825</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02252252252252252</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="N17">
-        <v>0.002252252252252252</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="O17">
-        <v>0.06981981981981981</v>
+        <v>0.0697211155378486</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1509009009009009</v>
+        <v>0.151394422310757</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03448275862068965</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1822660098522167</v>
+        <v>0.1850220264317181</v>
       </c>
       <c r="I18">
-        <v>0.1133004926108374</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="J18">
-        <v>0.4137931034482759</v>
+        <v>0.4140969162995595</v>
       </c>
       <c r="K18">
-        <v>0.07389162561576355</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03448275862068965</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04926108374384237</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09852216748768473</v>
+        <v>0.09251101321585903</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01717408274785324</v>
+        <v>0.01626591230551627</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1912568306010929</v>
+        <v>0.1944837340876945</v>
       </c>
       <c r="I19">
-        <v>0.09289617486338798</v>
+        <v>0.09193776520509193</v>
       </c>
       <c r="J19">
-        <v>0.3692427790788447</v>
+        <v>0.3691654879773691</v>
       </c>
       <c r="K19">
-        <v>0.1038251366120219</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02029664324746292</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N19">
-        <v>0.00156128024980484</v>
+        <v>0.002121640735502122</v>
       </c>
       <c r="O19">
-        <v>0.06713505074160812</v>
+        <v>0.06647807637906648</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1366120218579235</v>
+        <v>0.1357850070721358</v>
       </c>
     </row>
   </sheetData>
